--- a/secteur-action-publique/agriculture/departements/barometre-resultats-agriculture-departements-detail.xlsx
+++ b/secteur-action-publique/agriculture/departements/barometre-resultats-agriculture-departements-detail.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10968" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10968" uniqueCount="878">
   <si>
     <t>mesure</t>
   </si>
@@ -2306,324 +2306,330 @@
     <t>Paris</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Seine-Maritime</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Seine-et-Marne</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Yvelines</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>97.91</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Deux-Sèvres</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
     <t>9.0</t>
   </si>
   <si>
+    <t>678.0</t>
+  </si>
+  <si>
+    <t>98.55</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>174.0</t>
+  </si>
+  <si>
+    <t>204.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>98.93</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Tarn</t>
+  </si>
+  <si>
+    <t>683.0</t>
+  </si>
+  <si>
+    <t>824.0</t>
+  </si>
+  <si>
+    <t>96.53</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Tarn-et-Garonne</t>
+  </si>
+  <si>
+    <t>486.0</t>
+  </si>
+  <si>
+    <t>581.0</t>
+  </si>
+  <si>
+    <t>689.0</t>
+  </si>
+  <si>
+    <t>851.0</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>597.0</t>
+  </si>
+  <si>
+    <t>967.0</t>
+  </si>
+  <si>
+    <t>1318.0</t>
+  </si>
+  <si>
+    <t>98.19</t>
+  </si>
+  <si>
+    <t>97.86</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Vaucluse</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>878.0</t>
+  </si>
+  <si>
+    <t>951.0</t>
+  </si>
+  <si>
+    <t>1198.0</t>
+  </si>
+  <si>
+    <t>1826.0</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Vendée</t>
+  </si>
+  <si>
+    <t>555.0</t>
+  </si>
+  <si>
+    <t>626.0</t>
+  </si>
+  <si>
+    <t>703.0</t>
+  </si>
+  <si>
+    <t>780.0</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Vienne</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>426.0</t>
+  </si>
+  <si>
+    <t>596.0</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Haute-Vienne</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>361.0</t>
+  </si>
+  <si>
+    <t>396.0</t>
+  </si>
+  <si>
+    <t>564.0</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Vosges</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>278.0</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Yonne</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>419.0</t>
+  </si>
+  <si>
+    <t>524.0</t>
+  </si>
+  <si>
+    <t>692.0</t>
+  </si>
+  <si>
+    <t>99.1</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Territoire de Belfort</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Essonne</t>
+  </si>
+  <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Seine-Maritime</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>211.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>282.0</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Seine-et-Marne</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>161.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>255.0</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Yvelines</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>97.91</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Deux-Sèvres</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>678.0</t>
-  </si>
-  <si>
-    <t>98.55</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Somme</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>174.0</t>
-  </si>
-  <si>
-    <t>204.0</t>
-  </si>
-  <si>
-    <t>231.0</t>
-  </si>
-  <si>
-    <t>98.93</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Tarn</t>
-  </si>
-  <si>
-    <t>683.0</t>
-  </si>
-  <si>
-    <t>824.0</t>
-  </si>
-  <si>
-    <t>96.53</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Tarn-et-Garonne</t>
-  </si>
-  <si>
-    <t>486.0</t>
-  </si>
-  <si>
-    <t>581.0</t>
-  </si>
-  <si>
-    <t>689.0</t>
-  </si>
-  <si>
-    <t>851.0</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>597.0</t>
-  </si>
-  <si>
-    <t>967.0</t>
-  </si>
-  <si>
-    <t>1318.0</t>
-  </si>
-  <si>
-    <t>98.19</t>
-  </si>
-  <si>
-    <t>97.86</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Vaucluse</t>
-  </si>
-  <si>
-    <t>18.9</t>
-  </si>
-  <si>
-    <t>20.9</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>878.0</t>
-  </si>
-  <si>
-    <t>951.0</t>
-  </si>
-  <si>
-    <t>1198.0</t>
-  </si>
-  <si>
-    <t>1826.0</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Vendée</t>
-  </si>
-  <si>
-    <t>555.0</t>
-  </si>
-  <si>
-    <t>626.0</t>
-  </si>
-  <si>
-    <t>703.0</t>
-  </si>
-  <si>
-    <t>780.0</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Vienne</t>
-  </si>
-  <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>426.0</t>
-  </si>
-  <si>
-    <t>596.0</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Haute-Vienne</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>361.0</t>
-  </si>
-  <si>
-    <t>396.0</t>
-  </si>
-  <si>
-    <t>564.0</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Vosges</t>
-  </si>
-  <si>
-    <t>11.9</t>
-  </si>
-  <si>
-    <t>278.0</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Yonne</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>419.0</t>
-  </si>
-  <si>
-    <t>524.0</t>
-  </si>
-  <si>
-    <t>692.0</t>
-  </si>
-  <si>
-    <t>99.1</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Territoire de Belfort</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Essonne</t>
-  </si>
-  <si>
     <t>73.0</t>
   </si>
   <si>
@@ -2637,6 +2643,15 @@
   </si>
   <si>
     <t>Hauts-de-Seine</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>93</t>
@@ -3861,10 +3876,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E2" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -3887,10 +3902,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E3" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -3913,10 +3928,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E4" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -3939,10 +3954,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E5" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -3965,16 +3980,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E6" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -3991,10 +4006,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E7" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -4017,10 +4032,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E8" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -4043,10 +4058,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E9" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -4108,16 +4123,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4134,16 +4149,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E3" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4160,16 +4175,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E4" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4186,16 +4201,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E5" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4212,10 +4227,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E6" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -4238,10 +4253,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E7" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -4264,10 +4279,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E8" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -4290,16 +4305,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E9" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>731</v>
+        <v>837</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -31131,7 +31146,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -31157,7 +31172,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -31183,7 +31198,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>731</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -32860,7 +32875,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -32964,7 +32979,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -33016,7 +33031,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -33150,10 +33165,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -33176,10 +33191,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -33202,16 +33217,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -33228,10 +33243,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -33254,10 +33269,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -33280,16 +33295,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -33306,16 +33321,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -33332,16 +33347,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -33358,10 +33373,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -33384,10 +33399,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E11" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -33410,10 +33425,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E12" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -33436,16 +33451,16 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E13" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H13" t="s">
         <v>33</v>
@@ -33462,10 +33477,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -33527,10 +33542,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -33553,10 +33568,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -33579,10 +33594,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -33605,10 +33620,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -33631,10 +33646,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -33657,10 +33672,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -33683,16 +33698,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -33709,16 +33724,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -33735,10 +33750,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -33761,16 +33776,16 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E11" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -33787,10 +33802,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E12" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -33813,10 +33828,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -33839,10 +33854,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E14" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -33904,10 +33919,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -33930,10 +33945,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -33956,10 +33971,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -33982,10 +33997,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -34008,16 +34023,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E6" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -34034,16 +34049,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -34060,16 +34075,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E8" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -34086,16 +34101,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -34112,10 +34127,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -34138,10 +34153,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E11" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -34164,10 +34179,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -34190,10 +34205,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -34216,10 +34231,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E14" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -34281,16 +34296,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -34307,16 +34322,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -34333,16 +34348,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -34359,16 +34374,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -34385,16 +34400,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E6" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -34411,10 +34426,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -34437,16 +34452,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -34463,16 +34478,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -34489,10 +34504,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -34515,10 +34530,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -34541,16 +34556,16 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E12" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -34567,16 +34582,16 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H13" t="s">
         <v>33</v>
@@ -34593,10 +34608,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E14" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -34658,16 +34673,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -34684,16 +34699,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -34710,10 +34725,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -34736,16 +34751,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -34762,16 +34777,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E6" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -34788,16 +34803,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -34814,16 +34829,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -34840,16 +34855,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -34866,10 +34881,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -34892,10 +34907,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E11" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -34918,10 +34933,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E12" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -34944,10 +34959,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -34970,10 +34985,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E14" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -35035,10 +35050,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -35061,10 +35076,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -35087,10 +35102,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -35113,10 +35128,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -35139,16 +35154,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E6" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -35165,16 +35180,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -35191,16 +35206,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E8" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -35217,16 +35232,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -35243,10 +35258,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -35269,10 +35284,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E11" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -35295,10 +35310,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E12" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -35321,10 +35336,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -35347,10 +35362,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -35412,10 +35427,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -35438,10 +35453,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -35464,10 +35479,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -35490,10 +35505,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -35516,16 +35531,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E6" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -35542,16 +35557,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -35568,10 +35583,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -35594,16 +35609,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -35620,10 +35635,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -35646,10 +35661,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E11" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -35672,10 +35687,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E12" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -35698,10 +35713,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E13" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -35724,10 +35739,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -35789,16 +35804,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -35815,10 +35830,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -35841,16 +35856,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -35867,10 +35882,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E5" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -35893,16 +35908,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -35919,16 +35934,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -35945,10 +35960,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -35971,16 +35986,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E9" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -35997,10 +36012,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -36023,10 +36038,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E11" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -36049,10 +36064,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E12" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -36075,10 +36090,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -36101,10 +36116,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E14" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -36166,10 +36181,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -36192,10 +36207,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -36218,10 +36233,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -36244,16 +36259,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -36270,16 +36285,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E6" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -36296,10 +36311,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -36322,10 +36337,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -36348,10 +36363,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -36374,10 +36389,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -36400,10 +36415,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E11" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -36426,10 +36441,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E12" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -36452,10 +36467,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -36478,10 +36493,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E14" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -36920,10 +36935,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -36946,10 +36961,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -36972,16 +36987,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -36998,16 +37013,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E5" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -37024,10 +37039,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E6" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -37050,16 +37065,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -37076,16 +37091,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -37102,16 +37117,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -37128,10 +37143,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -37154,16 +37169,16 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -37180,10 +37195,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E12" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -37206,10 +37221,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E13" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -37232,10 +37247,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E14" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -37297,10 +37312,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -37323,10 +37338,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -37349,10 +37364,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -37375,16 +37390,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -37401,16 +37416,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -37427,16 +37442,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -37453,16 +37468,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -37479,16 +37494,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -37505,10 +37520,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -37531,10 +37546,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -37557,10 +37572,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E12" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -37583,10 +37598,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E13" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -37609,10 +37624,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E14" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -37674,10 +37689,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -37700,10 +37715,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -37726,10 +37741,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -37752,16 +37767,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>731</v>
+        <v>837</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -37778,16 +37793,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -37804,16 +37819,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -37830,16 +37845,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -37856,10 +37871,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -37882,10 +37897,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -37908,10 +37923,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E11" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -37934,10 +37949,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E12" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -37960,10 +37975,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -37986,10 +38001,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E14" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -38051,16 +38066,16 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>843</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -38077,16 +38092,16 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>844</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -38103,16 +38118,16 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E4" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>580</v>
+        <v>845</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -38129,16 +38144,16 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E5" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>731</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -38194,10 +38209,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E2" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -38220,10 +38235,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E3" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -38246,10 +38261,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E4" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -38272,16 +38287,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E5" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -38298,10 +38313,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E6" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -38324,10 +38339,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E7" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -38350,16 +38365,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E8" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -38376,10 +38391,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E9" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -38402,10 +38417,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E10" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -38428,10 +38443,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E11" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -38454,10 +38469,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E12" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -38480,10 +38495,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E13" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -38506,10 +38521,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E14" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -38571,10 +38586,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -38597,10 +38612,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E3" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -38623,10 +38638,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E4" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -38649,10 +38664,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E5" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -38675,16 +38690,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E6" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -38701,10 +38716,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E7" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -38727,16 +38742,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E8" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>731</v>
+        <v>837</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -38753,16 +38768,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E9" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -38779,10 +38794,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E10" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -38805,10 +38820,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E11" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -38831,10 +38846,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E12" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -38857,10 +38872,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E13" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -38883,10 +38898,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E14" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -38948,10 +38963,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -38974,16 +38989,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E3" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -39000,10 +39015,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E4" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -39026,10 +39041,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E5" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -39052,10 +39067,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E6" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -39078,16 +39093,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E7" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -39104,16 +39119,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E8" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -39130,10 +39145,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E9" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -39156,10 +39171,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E10" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -39182,10 +39197,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E11" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -39208,10 +39223,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E12" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -39234,10 +39249,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E13" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -39260,10 +39275,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E14" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -39325,16 +39340,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -39351,16 +39366,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E3" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -39377,10 +39392,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E4" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -39403,10 +39418,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E5" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -39429,16 +39444,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E6" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -39455,16 +39470,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E7" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -39481,16 +39496,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E8" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -39507,16 +39522,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E9" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -39572,10 +39587,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -39598,10 +39613,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E3" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -39624,10 +39639,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E4" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -39650,10 +39665,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E5" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -39676,16 +39691,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E6" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -39702,10 +39717,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E7" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -39728,16 +39743,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E8" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -39754,16 +39769,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E9" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -39819,10 +39834,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -39845,10 +39860,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E3" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -39871,16 +39886,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E4" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -39897,16 +39912,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E5" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -39923,10 +39938,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E6" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -39949,16 +39964,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E7" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -39975,16 +39990,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E8" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -40001,16 +40016,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E9" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>

--- a/secteur-action-publique/agriculture/departements/barometre-resultats-agriculture-departements-detail.xlsx
+++ b/secteur-action-publique/agriculture/departements/barometre-resultats-agriculture-departements-detail.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10968" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10968" uniqueCount="878">
   <si>
     <t>mesure</t>
   </si>
@@ -2306,337 +2306,352 @@
     <t>Paris</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Seine-Maritime</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Seine-et-Marne</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Yvelines</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>97.91</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Deux-Sèvres</t>
+  </si>
+  <si>
+    <t>678.0</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
     <t>9.0</t>
   </si>
   <si>
+    <t>98.55</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>174.0</t>
+  </si>
+  <si>
+    <t>204.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>98.93</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Tarn</t>
+  </si>
+  <si>
+    <t>683.0</t>
+  </si>
+  <si>
+    <t>824.0</t>
+  </si>
+  <si>
+    <t>96.53</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Tarn-et-Garonne</t>
+  </si>
+  <si>
+    <t>486.0</t>
+  </si>
+  <si>
+    <t>581.0</t>
+  </si>
+  <si>
+    <t>689.0</t>
+  </si>
+  <si>
+    <t>851.0</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>597.0</t>
+  </si>
+  <si>
+    <t>967.0</t>
+  </si>
+  <si>
+    <t>1318.0</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>98.19</t>
+  </si>
+  <si>
+    <t>97.86</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Vaucluse</t>
+  </si>
+  <si>
+    <t>878.0</t>
+  </si>
+  <si>
+    <t>951.0</t>
+  </si>
+  <si>
+    <t>1198.0</t>
+  </si>
+  <si>
+    <t>1826.0</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Vendée</t>
+  </si>
+  <si>
+    <t>555.0</t>
+  </si>
+  <si>
+    <t>626.0</t>
+  </si>
+  <si>
+    <t>703.0</t>
+  </si>
+  <si>
+    <t>780.0</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Vienne</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>426.0</t>
+  </si>
+  <si>
+    <t>596.0</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Haute-Vienne</t>
+  </si>
+  <si>
+    <t>361.0</t>
+  </si>
+  <si>
+    <t>396.0</t>
+  </si>
+  <si>
+    <t>564.0</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Vosges</t>
+  </si>
+  <si>
+    <t>278.0</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Yonne</t>
+  </si>
+  <si>
+    <t>419.0</t>
+  </si>
+  <si>
+    <t>524.0</t>
+  </si>
+  <si>
+    <t>692.0</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>99.1</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Territoire de Belfort</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Essonne</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Seine-Maritime</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>211.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>282.0</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Seine-et-Marne</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>161.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>255.0</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Yvelines</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>97.91</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Deux-Sèvres</t>
-  </si>
-  <si>
-    <t>678.0</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>98.55</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Somme</t>
-  </si>
-  <si>
-    <t>174.0</t>
-  </si>
-  <si>
-    <t>204.0</t>
-  </si>
-  <si>
-    <t>231.0</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>98.93</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Tarn</t>
-  </si>
-  <si>
-    <t>683.0</t>
-  </si>
-  <si>
-    <t>824.0</t>
-  </si>
-  <si>
-    <t>96.53</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Tarn-et-Garonne</t>
-  </si>
-  <si>
-    <t>486.0</t>
-  </si>
-  <si>
-    <t>581.0</t>
-  </si>
-  <si>
-    <t>689.0</t>
-  </si>
-  <si>
-    <t>851.0</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>597.0</t>
-  </si>
-  <si>
-    <t>967.0</t>
-  </si>
-  <si>
-    <t>1318.0</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>98.19</t>
-  </si>
-  <si>
-    <t>97.86</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Vaucluse</t>
-  </si>
-  <si>
-    <t>878.0</t>
-  </si>
-  <si>
-    <t>951.0</t>
-  </si>
-  <si>
-    <t>1198.0</t>
-  </si>
-  <si>
-    <t>1826.0</t>
-  </si>
-  <si>
-    <t>18.9</t>
-  </si>
-  <si>
-    <t>20.9</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Vendée</t>
-  </si>
-  <si>
-    <t>555.0</t>
-  </si>
-  <si>
-    <t>626.0</t>
-  </si>
-  <si>
-    <t>703.0</t>
-  </si>
-  <si>
-    <t>780.0</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Vienne</t>
-  </si>
-  <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>426.0</t>
-  </si>
-  <si>
-    <t>596.0</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Haute-Vienne</t>
-  </si>
-  <si>
-    <t>361.0</t>
-  </si>
-  <si>
-    <t>396.0</t>
-  </si>
-  <si>
-    <t>564.0</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Vosges</t>
-  </si>
-  <si>
-    <t>278.0</t>
-  </si>
-  <si>
-    <t>11.9</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Yonne</t>
-  </si>
-  <si>
-    <t>419.0</t>
-  </si>
-  <si>
-    <t>524.0</t>
-  </si>
-  <si>
-    <t>692.0</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>99.1</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Territoire de Belfort</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Essonne</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
     <t>Hauts-de-Seine</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>93</t>
@@ -3861,16 +3876,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E2" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3887,10 +3902,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E3" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -3913,10 +3928,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E4" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -3939,10 +3954,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E5" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -3965,10 +3980,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E6" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -3991,10 +4006,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E7" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -4017,10 +4032,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E8" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -4043,10 +4058,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E9" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -4108,10 +4123,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -4134,10 +4149,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E3" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -4160,10 +4175,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E4" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4186,16 +4201,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E5" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>731</v>
+        <v>840</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4212,16 +4227,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E6" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -4238,16 +4253,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E7" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -4264,16 +4279,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E8" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -4290,16 +4305,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E9" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -31131,7 +31146,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>634</v>
+        <v>730</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -31157,7 +31172,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -31183,7 +31198,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>731</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -32964,7 +32979,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>730</v>
+        <v>759</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -33016,7 +33031,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -33150,10 +33165,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -33176,16 +33191,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -33202,16 +33217,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -33228,16 +33243,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -33254,10 +33269,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -33280,10 +33295,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -33306,16 +33321,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -33332,10 +33347,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -33358,10 +33373,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -33384,10 +33399,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E11" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -33410,10 +33425,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E12" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -33436,16 +33451,16 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E13" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H13" t="s">
         <v>33</v>
@@ -33462,10 +33477,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -33527,10 +33542,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -33553,10 +33568,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -33579,16 +33594,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -33605,16 +33620,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -33631,10 +33646,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -33657,10 +33672,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -33683,10 +33698,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -33709,10 +33724,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -33735,10 +33750,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -33761,16 +33776,16 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E11" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -33787,10 +33802,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E12" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -33813,10 +33828,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -33839,10 +33854,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E14" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -33904,16 +33919,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -33930,16 +33945,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -33956,16 +33971,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -33982,16 +33997,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -34008,10 +34023,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E6" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -34034,10 +34049,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -34060,10 +34075,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E8" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -34086,10 +34101,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -34112,10 +34127,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -34138,10 +34153,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E11" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -34164,10 +34179,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -34190,10 +34205,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -34216,10 +34231,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E14" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -34281,16 +34296,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -34307,10 +34322,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -34333,16 +34348,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -34359,16 +34374,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -34385,16 +34400,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E6" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -34411,16 +34426,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -34437,16 +34452,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -34463,16 +34478,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -34489,10 +34504,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -34515,10 +34530,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -34541,16 +34556,16 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E12" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -34567,16 +34582,16 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H13" t="s">
         <v>33</v>
@@ -34593,10 +34608,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E14" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -34658,16 +34673,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -34684,16 +34699,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -34710,16 +34725,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -34736,16 +34751,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -34762,16 +34777,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E6" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -34788,16 +34803,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -34814,10 +34829,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -34840,16 +34855,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -34866,10 +34881,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -34892,10 +34907,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E11" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -34918,10 +34933,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E12" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -34944,10 +34959,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -34970,10 +34985,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E14" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -35035,16 +35050,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -35061,16 +35076,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -35087,16 +35102,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -35113,16 +35128,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -35139,10 +35154,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E6" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -35165,10 +35180,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -35191,10 +35206,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E8" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -35217,10 +35232,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -35243,10 +35258,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -35269,10 +35284,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E11" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -35295,10 +35310,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E12" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -35321,10 +35336,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -35347,10 +35362,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -35412,16 +35427,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -35438,16 +35453,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -35464,10 +35479,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -35490,16 +35505,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -35516,10 +35531,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E6" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -35542,10 +35557,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -35568,10 +35583,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -35594,10 +35609,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -35620,10 +35635,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -35646,10 +35661,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E11" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -35672,10 +35687,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E12" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -35698,10 +35713,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E13" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -35724,10 +35739,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -35789,16 +35804,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -35815,16 +35830,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -35841,10 +35856,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -35867,16 +35882,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E5" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -35893,16 +35908,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -35919,10 +35934,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -35945,16 +35960,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -35971,10 +35986,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E9" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -35997,10 +36012,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -36023,10 +36038,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E11" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -36049,10 +36064,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E12" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -36075,10 +36090,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -36101,10 +36116,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E14" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -36166,16 +36181,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -36192,10 +36207,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -36218,10 +36233,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -36244,10 +36259,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -36270,10 +36285,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E6" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -36296,10 +36311,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -36322,10 +36337,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -36348,16 +36363,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -36374,10 +36389,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -36400,10 +36415,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E11" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -36426,10 +36441,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E12" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -36452,10 +36467,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -36478,10 +36493,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E14" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -36920,10 +36935,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -36946,16 +36961,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -36972,16 +36987,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -36998,16 +37013,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E5" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -37024,10 +37039,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E6" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -37050,10 +37065,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -37076,16 +37091,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -37102,16 +37117,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -37128,10 +37143,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -37154,16 +37169,16 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -37180,10 +37195,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E12" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -37206,10 +37221,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E13" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -37232,10 +37247,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E14" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -37297,16 +37312,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -37323,16 +37338,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -37349,16 +37364,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -37375,16 +37390,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -37401,10 +37416,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -37427,10 +37442,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -37453,10 +37468,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -37479,16 +37494,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -37505,10 +37520,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -37531,10 +37546,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -37557,10 +37572,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E12" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -37583,10 +37598,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E13" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -37609,10 +37624,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E14" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -37674,16 +37689,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -37700,16 +37715,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -37726,16 +37741,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -37752,10 +37767,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -37778,10 +37793,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -37804,10 +37819,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -37830,10 +37845,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -37856,16 +37871,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>731</v>
+        <v>840</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -37882,10 +37897,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -37908,10 +37923,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E11" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -37934,10 +37949,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E12" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -37960,10 +37975,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -37986,10 +38001,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E14" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -38051,16 +38066,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>843</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -38077,16 +38092,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>844</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -38103,16 +38118,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E4" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>583</v>
+        <v>845</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -38129,16 +38144,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E5" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>731</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -38194,10 +38209,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E2" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -38220,10 +38235,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E3" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -38246,16 +38261,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E4" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -38272,10 +38287,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E5" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -38298,10 +38313,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E6" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -38324,10 +38339,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E7" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -38350,10 +38365,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E8" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -38376,16 +38391,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E9" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -38402,10 +38417,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E10" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -38428,10 +38443,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E11" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -38454,10 +38469,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E12" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -38480,10 +38495,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E13" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -38506,10 +38521,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E14" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -38571,16 +38586,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>730</v>
+        <v>759</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -38597,10 +38612,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E3" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -38623,16 +38638,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E4" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>731</v>
+        <v>840</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -38649,16 +38664,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E5" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -38675,10 +38690,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E6" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -38701,10 +38716,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E7" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -38727,10 +38742,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E8" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -38753,10 +38768,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E9" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -38779,10 +38794,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E10" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -38805,10 +38820,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E11" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -38831,10 +38846,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E12" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -38857,10 +38872,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E13" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -38883,10 +38898,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E14" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -38948,10 +38963,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -38974,16 +38989,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E3" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -39000,16 +39015,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E4" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -39026,10 +39041,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E5" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -39052,10 +39067,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E6" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -39078,16 +39093,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E7" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -39104,10 +39119,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E8" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -39130,10 +39145,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E9" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -39156,10 +39171,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E10" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -39182,10 +39197,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E11" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -39208,10 +39223,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E12" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -39234,10 +39249,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E13" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -39260,10 +39275,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E14" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -39325,16 +39340,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -39351,16 +39366,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E3" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -39377,16 +39392,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E4" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -39403,16 +39418,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E5" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -39429,16 +39444,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E6" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -39455,16 +39470,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E7" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -39481,10 +39496,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E8" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -39507,10 +39522,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E9" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -39572,16 +39587,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -39598,10 +39613,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E3" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -39624,16 +39639,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E4" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -39650,16 +39665,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E5" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -39676,10 +39691,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E6" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -39702,10 +39717,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E7" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -39728,10 +39743,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E8" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -39754,10 +39769,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E9" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -39819,10 +39834,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -39845,16 +39860,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E3" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -39871,16 +39886,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E4" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -39897,16 +39912,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E5" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -39923,10 +39938,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E6" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -39949,10 +39964,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E7" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -39975,16 +39990,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E8" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -40001,16 +40016,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E9" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
